--- a/output/below_50/tRNA-Ser-CGA-3-1.xlsx
+++ b/output/below_50/tRNA-Ser-CGA-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>chr6</t>
   </si>
@@ -288,273 +288,6 @@
   </si>
   <si>
     <t>67</t>
-  </si>
-  <si>
-    <t>27640397</t>
-  </si>
-  <si>
-    <t>27640420</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>27640400</t>
-  </si>
-  <si>
-    <t>AAAAGTGACAAATACAAACA</t>
-  </si>
-  <si>
-    <t>99% (72)</t>
-  </si>
-  <si>
-    <t>54% (47)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 30, Doench 2016: 99%, Moreno-Mateos: 54%</t>
-  </si>
-  <si>
-    <t>2.72236E+11</t>
-  </si>
-  <si>
-    <t>27640500</t>
-  </si>
-  <si>
-    <t>27640523</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>27640520</t>
-  </si>
-  <si>
-    <t>CTATGCATCAGAAACTTATT</t>
-  </si>
-  <si>
-    <t>3% (22)</t>
-  </si>
-  <si>
-    <t>7% (19)</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 3%, Moreno-Mateos: 7%</t>
-  </si>
-  <si>
-    <t>2.54586E+11</t>
-  </si>
-  <si>
-    <t>27640579</t>
-  </si>
-  <si>
-    <t>27640602</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>27640582</t>
-  </si>
-  <si>
-    <t>ATGAACTGGAGGGAGGAATA</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 38%, Moreno-Mateos: 84%</t>
-  </si>
-  <si>
-    <t>1.32909E+11</t>
-  </si>
-  <si>
-    <t>27640589</t>
-  </si>
-  <si>
-    <t>27640612</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>27640592</t>
-  </si>
-  <si>
-    <t>AAGAAAATTCATGAACTGGA</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 36, Doench 2016: 84%, Moreno-Mateos: 65%</t>
-  </si>
-  <si>
-    <t>1.36277E+11</t>
-  </si>
-  <si>
-    <t>27640593</t>
-  </si>
-  <si>
-    <t>27640616</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>27640596</t>
-  </si>
-  <si>
-    <t>AGAGAAGAAAATTCATGAAC</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>2% (9)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 21%, Moreno-Mateos: 2%</t>
-  </si>
-  <si>
-    <t>2.23646E+11</t>
-  </si>
-  <si>
-    <t>27640664</t>
-  </si>
-  <si>
-    <t>27640687</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>27640667</t>
-  </si>
-  <si>
-    <t>AGTACAAAGTGAGAGAGGCA</t>
-  </si>
-  <si>
-    <t>37% (39)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 27, Doench 2016: 95%, Moreno-Mateos: 37%</t>
-  </si>
-  <si>
-    <t>3.38981E+11</t>
-  </si>
-  <si>
-    <t>27640665</t>
-  </si>
-  <si>
-    <t>27640688</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>27640668</t>
-  </si>
-  <si>
-    <t>GAGTACAAAGTGAGAGAGGC</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 30%, Moreno-Mateos: 29%</t>
-  </si>
-  <si>
-    <t>1.93021E+11</t>
-  </si>
-  <si>
-    <t>27640669</t>
-  </si>
-  <si>
-    <t>27640692</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>27640672</t>
-  </si>
-  <si>
-    <t>AAAGGAGTACAAAGTGAGAG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 35, Doench 2016: 86%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>2.08483E+11</t>
-  </si>
-  <si>
-    <t>27640750</t>
-  </si>
-  <si>
-    <t>27640773</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>27640753</t>
-  </si>
-  <si>
-    <t>ATTGTCATGAATTTAAAGTG</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 24, Doench 2016: 86%, Moreno-Mateos: 37%</t>
-  </si>
-  <si>
-    <t>2055777977</t>
   </si>
 </sst>
 </file>
@@ -599,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1136,537 +869,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>130</v>
-      </c>
-      <c r="R13" t="s">
-        <v>131</v>
-      </c>
-      <c r="S13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" t="s">
-        <v>139</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>140</v>
-      </c>
-      <c r="R14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" t="s">
-        <v>150</v>
-      </c>
-      <c r="S15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" t="s">
-        <v>164</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" t="s">
-        <v>168</v>
-      </c>
-      <c r="P17" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>170</v>
-      </c>
-      <c r="R17" t="s">
-        <v>171</v>
-      </c>
-      <c r="S17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" t="s">
-        <v>148</v>
-      </c>
-      <c r="P18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>178</v>
-      </c>
-      <c r="R18" t="s">
-        <v>179</v>
-      </c>
-      <c r="S18" t="s">
-        <v>180</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
